--- a/chembiocrunch/static/misc/Assay_Meta_Data_File_Sample.xlsx
+++ b/chembiocrunch/static/misc/Assay_Meta_Data_File_Sample.xlsx
@@ -15,174 +15,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
-  <si>
-    <t>Top conc position</t>
-  </si>
-  <si>
-    <t>Global ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>User Enter Experimental Details</t>
   </si>
   <si>
-    <t>Dilution Series (M)</t>
-  </si>
-  <si>
-    <t>A1B1</t>
-  </si>
-  <si>
-    <t>A13B13</t>
-  </si>
-  <si>
     <t>Assay Type</t>
   </si>
   <si>
     <t>IC50 Curve</t>
   </si>
   <si>
-    <t>C1D1</t>
-  </si>
-  <si>
-    <t>BDG00021166a</t>
-  </si>
-  <si>
     <t>Date of Assay</t>
   </si>
   <si>
-    <t>C13D13</t>
-  </si>
-  <si>
-    <t>BDG00021348a</t>
-  </si>
-  <si>
     <t>Assay Units</t>
   </si>
   <si>
     <t>Luminescence</t>
   </si>
   <si>
-    <t>E1F1</t>
-  </si>
-  <si>
-    <t>BDG00021165a</t>
-  </si>
-  <si>
     <t>Assay Buffer</t>
   </si>
   <si>
     <t>25 mM HEPES, 100 mM NaCl, 0.1% BSA, 0.05% CHAPS</t>
   </si>
   <si>
-    <t>E13F13</t>
-  </si>
-  <si>
-    <t>BDG00021338a</t>
-  </si>
-  <si>
     <t>Compound Incubation Time (mins)</t>
   </si>
   <si>
-    <t>G1H1</t>
-  </si>
-  <si>
-    <t>BDG00021157a</t>
-  </si>
-  <si>
     <t>Compound Incubation Temperature</t>
   </si>
   <si>
     <t>RT</t>
   </si>
   <si>
-    <t>G13H13</t>
-  </si>
-  <si>
-    <t>BDG00021354a</t>
-  </si>
-  <si>
     <t>Protein</t>
   </si>
   <si>
     <t>BRD9A-p014</t>
   </si>
   <si>
-    <t>I1J1</t>
-  </si>
-  <si>
-    <t>BDG00021341a</t>
-  </si>
-  <si>
     <t>Protein Concentration (nM)</t>
   </si>
   <si>
-    <t>I13J13</t>
-  </si>
-  <si>
-    <t>BDG00021345a</t>
-  </si>
-  <si>
     <t>Peptide ID</t>
   </si>
   <si>
     <t>SPOOA000059a</t>
   </si>
   <si>
-    <t>K1L1</t>
-  </si>
-  <si>
-    <t>BDG00021332a</t>
-  </si>
-  <si>
     <t>Peptide Description</t>
   </si>
   <si>
     <t>Histone H4 Tetra Acetylated</t>
   </si>
   <si>
-    <t>K13L13</t>
-  </si>
-  <si>
-    <t>BDG00020625b</t>
-  </si>
-  <si>
     <t>Solvent</t>
   </si>
   <si>
     <t>DMSO</t>
   </si>
   <si>
-    <t>M1N1</t>
-  </si>
-  <si>
-    <t>BDG00021108a</t>
-  </si>
-  <si>
     <t>Solvent Concentration (%)</t>
   </si>
   <si>
-    <t>M13N13</t>
-  </si>
-  <si>
-    <t>BDG00020684a</t>
-  </si>
-  <si>
     <t>Peptide Concentration (nM)</t>
   </si>
   <si>
-    <t>O1P1</t>
-  </si>
-  <si>
-    <t>BDG00021339a</t>
-  </si>
-  <si>
     <t>Peptide Incubation Time</t>
-  </si>
-  <si>
-    <t>O13P13</t>
-  </si>
-  <si>
-    <t>BDG00021103a</t>
   </si>
   <si>
     <t>Incubation Temperature</t>
@@ -323,10 +224,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H26"/>
+  <dimension ref="E1:H26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+      <selection pane="topLeft" activeCell="H15" activeCellId="0" sqref="H1:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.05"/>
@@ -334,277 +235,149 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F2" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E4" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="0" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>5E-005</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>2.5E-005</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>41843</v>
       </c>
-      <c r="H5" s="0" t="n">
-        <v>1.25E-005</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E6" s="0" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>6.25E-006</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>16</v>
-      </c>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="0" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>3.75E-006</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>20</v>
-      </c>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E8" s="0" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="H8" s="0" t="n">
-        <v>1.25E-006</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>23</v>
-      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E9" s="0" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>7.812E-007</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>27</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E10" s="0" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>3.906E-007</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>31</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E11" s="0" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>1.953E-007</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>34</v>
-      </c>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E12" s="0" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>9.765E-008</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>38</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E13" s="0" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>5.859E-008</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E14" s="0" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>46</v>
-      </c>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E15" s="0" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>49</v>
-      </c>
+    <row r="16" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E16" s="0" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>12.5</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>52</v>
-      </c>
+    <row r="17" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E17" s="0" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>55</v>
-      </c>
+    <row r="18" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E18" s="0" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>25</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E19" s="0" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0.002</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E20" s="0" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>0.0025</v>
@@ -612,15 +385,15 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E21" s="0" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E22" s="0" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>60</v>
@@ -628,7 +401,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E23" s="0" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>25</v>
@@ -636,23 +409,23 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E24" s="0" t="s">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E25" s="0" t="s">
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E26" s="0" t="s">
-        <v>65</v>
+        <v>32</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
